--- a/data/geologie_template.xlsx
+++ b/data/geologie_template.xlsx
@@ -81587,37 +81587,37 @@
   <cols>
     <col min="1" max="1" width="8.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="44.7109375" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="34.7109375" style="2" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" hidden="1" customWidth="1"/>
-    <col min="7" max="8" width="20.7109375" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="44.7109375" customWidth="1"/>
+    <col min="4" max="4" width="36.7109375" customWidth="1"/>
+    <col min="5" max="5" width="34.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" customWidth="1"/>
+    <col min="7" max="8" width="20.7109375" customWidth="1"/>
     <col min="9" max="9" width="42.7109375" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="62.7109375" style="2" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="58.7109375" style="2" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="70.7109375" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="100.7109375" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="92.7109375" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="66.7109375" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="62.7109375" style="2" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="84.7109375" hidden="1" customWidth="1"/>
-    <col min="18" max="19" width="72.7109375" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="66.7109375" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="80.7109375" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="82.7109375" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="70.7109375" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="84.7109375" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="108.7109375" hidden="1" customWidth="1"/>
-    <col min="26" max="27" width="86.7109375" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="110.7109375" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="140.7109375" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="132.7109375" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="106.7109375" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="70.7109375" hidden="1" customWidth="1"/>
-    <col min="33" max="34" width="116.7109375" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="126.7109375" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="132.7109375" hidden="1" customWidth="1"/>
-    <col min="37" max="38" width="130.7109375" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="100.7109375" customWidth="1"/>
+    <col min="14" max="14" width="92.7109375" customWidth="1"/>
+    <col min="15" max="15" width="66.7109375" customWidth="1"/>
+    <col min="16" max="16" width="62.7109375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="84.7109375" customWidth="1"/>
+    <col min="18" max="19" width="72.7109375" customWidth="1"/>
+    <col min="20" max="20" width="66.7109375" customWidth="1"/>
+    <col min="21" max="21" width="80.7109375" customWidth="1"/>
+    <col min="22" max="22" width="82.7109375" customWidth="1"/>
+    <col min="23" max="23" width="70.7109375" customWidth="1"/>
+    <col min="24" max="24" width="84.7109375" customWidth="1"/>
+    <col min="25" max="25" width="108.7109375" customWidth="1"/>
+    <col min="26" max="27" width="86.7109375" customWidth="1"/>
+    <col min="28" max="28" width="110.7109375" customWidth="1"/>
+    <col min="29" max="29" width="140.7109375" customWidth="1"/>
+    <col min="30" max="30" width="132.7109375" customWidth="1"/>
+    <col min="31" max="31" width="106.7109375" customWidth="1"/>
+    <col min="32" max="32" width="70.7109375" customWidth="1"/>
+    <col min="33" max="34" width="116.7109375" customWidth="1"/>
+    <col min="35" max="35" width="126.7109375" customWidth="1"/>
+    <col min="36" max="36" width="132.7109375" customWidth="1"/>
+    <col min="37" max="38" width="130.7109375" customWidth="1"/>
     <col min="39" max="39" width="92.7109375" hidden="1" customWidth="1"/>
     <col min="40" max="40" width="84.7109375" style="2" hidden="1" customWidth="1"/>
     <col min="41" max="41" width="122.7109375" hidden="1" customWidth="1"/>

--- a/data/geologie_template.xlsx
+++ b/data/geologie_template.xlsx
@@ -71157,10 +71157,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="54.7109375" customWidth="1"/>
-    <col min="5" max="5" width="86.7109375" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" hidden="1" customWidth="1"/>
+    <col min="2" max="3" width="20.7109375" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="54.7109375" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="86.7109375" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="88.7109375" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="100.7109375" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="52.7109375" hidden="1" customWidth="1"/>
@@ -82041,10 +82041,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="44.7109375" customWidth="1"/>
-    <col min="4" max="4" width="36.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="44.7109375" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="36.7109375" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="34.7109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="22.7109375" customWidth="1"/>
     <col min="7" max="8" width="20.7109375" customWidth="1"/>
@@ -83599,7 +83599,7 @@
   <cols>
     <col min="1" max="1" width="8.7109375" customWidth="1"/>
     <col min="2" max="2" width="54.7109375" customWidth="1"/>
-    <col min="3" max="3" width="86.7109375" customWidth="1"/>
+    <col min="3" max="3" width="86.7109375" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="88.7109375" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="100.7109375" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="52.7109375" hidden="1" customWidth="1"/>
@@ -83608,7 +83608,7 @@
     <col min="9" max="9" width="54.7109375" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="50.7109375" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="54.7109375" customWidth="1"/>
-    <col min="12" max="12" width="86.7109375" customWidth="1"/>
+    <col min="12" max="12" width="86.7109375" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="88.7109375" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="100.7109375" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="52.7109375" hidden="1" customWidth="1"/>

--- a/data/geologie_template.xlsx
+++ b/data/geologie_template.xlsx
@@ -83598,7 +83598,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="54.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="86.7109375" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="88.7109375" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="100.7109375" hidden="1" customWidth="1"/>
@@ -83607,7 +83607,7 @@
     <col min="8" max="8" width="72.7109375" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="54.7109375" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="50.7109375" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="54.7109375" customWidth="1"/>
+    <col min="11" max="11" width="26.7109375" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="86.7109375" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="88.7109375" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="100.7109375" hidden="1" customWidth="1"/>
@@ -83619,7 +83619,7 @@
     <col min="20" max="20" width="44.7109375" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="36.7109375" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="24.7109375" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="58.7109375" customWidth="1"/>
+    <col min="23" max="23" width="30.7109375" hidden="1" customWidth="1"/>
     <col min="24" max="24" width="90.7109375" hidden="1" customWidth="1"/>
     <col min="25" max="25" width="92.7109375" hidden="1" customWidth="1"/>
     <col min="26" max="26" width="104.7109375" hidden="1" customWidth="1"/>

--- a/data/geologie_template.xlsx
+++ b/data/geologie_template.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6479" uniqueCount="1284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6661" uniqueCount="1374">
   <si>
     <t>identificatie</t>
   </si>
@@ -3843,6 +3843,69 @@
     <t>status</t>
   </si>
   <si>
+    <t>kwaliteit-origine</t>
+  </si>
+  <si>
+    <t>origine</t>
+  </si>
+  <si>
+    <t>kwaliteit</t>
+  </si>
+  <si>
+    <t>bijlage-titel</t>
+  </si>
+  <si>
+    <t>titel</t>
+  </si>
+  <si>
+    <t>bijlage-choice_1-datum</t>
+  </si>
+  <si>
+    <t>bijlage-choice_1-jaar</t>
+  </si>
+  <si>
+    <t>jaar</t>
+  </si>
+  <si>
+    <t>bijlage-choice_2-bestand</t>
+  </si>
+  <si>
+    <t>bestand</t>
+  </si>
+  <si>
+    <t>bijlage-choice_2-url</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>choice_2</t>
+  </si>
+  <si>
+    <t>bijlage-bijlage_type</t>
+  </si>
+  <si>
+    <t>bijlage_type</t>
+  </si>
+  <si>
+    <t>bijlage</t>
+  </si>
+  <si>
+    <t>dataidentifier-permkey</t>
+  </si>
+  <si>
+    <t>permkey</t>
+  </si>
+  <si>
+    <t>dataidentifier-uri</t>
+  </si>
+  <si>
+    <t>uri</t>
+  </si>
+  <si>
+    <t>dataidentifier</t>
+  </si>
+  <si>
     <t>publiek</t>
   </si>
   <si>
@@ -3858,16 +3921,223 @@
     <t>intern afgewerkt</t>
   </si>
   <si>
+    <t>VLAREM</t>
+  </si>
+  <si>
+    <t>VLAREL</t>
+  </si>
+  <si>
+    <t>Oppervlaktedelfstoffendecreet</t>
+  </si>
+  <si>
+    <t>Decreet Diepe Ondergrond</t>
+  </si>
+  <si>
+    <t>andere wettelijke verplichting</t>
+  </si>
+  <si>
+    <t>uitgevoerd voor kartering</t>
+  </si>
+  <si>
+    <t>gebruikt in kartering</t>
+  </si>
+  <si>
+    <t>uitgevoerd voor modellering</t>
+  </si>
+  <si>
+    <t>gebruikt in modellering</t>
+  </si>
+  <si>
+    <t>archiefinvoer</t>
+  </si>
+  <si>
+    <t>wetenschappelijk onderzoek</t>
+  </si>
+  <si>
+    <t>studies/projecten</t>
+  </si>
+  <si>
+    <t>Archeologieregelgeving</t>
+  </si>
+  <si>
+    <t>andere</t>
+  </si>
+  <si>
+    <t>edov</t>
+  </si>
+  <si>
+    <t>detailplan</t>
+  </si>
+  <si>
+    <t>foto</t>
+  </si>
+  <si>
+    <t>lithoprofiel</t>
+  </si>
+  <si>
+    <t>geologisch profiel</t>
+  </si>
+  <si>
+    <t>stijghoogtereeks</t>
+  </si>
+  <si>
+    <t>grondwater kwaliteitsanalyse</t>
+  </si>
+  <si>
+    <t>onttrekking-reeks</t>
+  </si>
+  <si>
+    <t>boorgatmeting</t>
+  </si>
+  <si>
+    <t>attest opvulling put</t>
+  </si>
+  <si>
+    <t>IMJV</t>
+  </si>
+  <si>
+    <t>liggingsplan putten</t>
+  </si>
+  <si>
+    <t>boorrapport</t>
+  </si>
+  <si>
+    <t>putschema</t>
+  </si>
+  <si>
+    <t>vergunning</t>
+  </si>
+  <si>
+    <t>UG-Biblio</t>
+  </si>
+  <si>
+    <t>statusmotivatie</t>
+  </si>
+  <si>
+    <t>UG-Lib</t>
+  </si>
+  <si>
+    <t>kwaliteitscontrole XYZ</t>
+  </si>
+  <si>
+    <t>Data aardkundig profiel</t>
+  </si>
+  <si>
+    <t>Andere archeologie</t>
+  </si>
+  <si>
+    <t>foto bodem omgeving</t>
+  </si>
+  <si>
+    <t>foto bodem profiel zonder nummering</t>
+  </si>
+  <si>
+    <t>foto bodem profiel met nummering</t>
+  </si>
+  <si>
+    <t>archeologische prospectie</t>
+  </si>
+  <si>
+    <t>archeologische opgraving</t>
+  </si>
+  <si>
+    <t>bodemprofielbeschrijving</t>
+  </si>
+  <si>
+    <t>bodemobservaties</t>
+  </si>
+  <si>
+    <t>foto bodem overzicht</t>
+  </si>
+  <si>
+    <t>foto bodem detail</t>
+  </si>
+  <si>
+    <t>foto bodem horizontale coupe</t>
+  </si>
+  <si>
+    <t>bodemexcursiegids</t>
+  </si>
+  <si>
+    <t>rapport</t>
+  </si>
+  <si>
+    <t>sondeerrapport</t>
+  </si>
+  <si>
+    <t>CTE-vooronderzoek</t>
+  </si>
+  <si>
+    <t>CTE-probleemanalyse</t>
+  </si>
+  <si>
+    <t>CTE-oppervlaktedetectie</t>
+  </si>
+  <si>
+    <t>CTE-dieptedetectie</t>
+  </si>
+  <si>
+    <t>CTE-opsporen van CTE</t>
+  </si>
+  <si>
+    <t>CTE-toevalsvondsten</t>
+  </si>
+  <si>
+    <t>CTE-pers</t>
+  </si>
+  <si>
+    <t>Bemalingsstudie</t>
+  </si>
+  <si>
+    <t>BGD-scan</t>
+  </si>
+  <si>
+    <t>BGD-txt</t>
+  </si>
+  <si>
+    <t>fiche herstellingen put/filter</t>
+  </si>
+  <si>
+    <t>GEF bestand</t>
+  </si>
+  <si>
+    <t>Grondwater - advies</t>
+  </si>
+  <si>
+    <t>Grondwater onttrekking-reeks</t>
+  </si>
+  <si>
+    <t>Laboverslag</t>
+  </si>
+  <si>
+    <t>Ontginning - adviezen</t>
+  </si>
+  <si>
+    <t>Ontginning - besluiten</t>
+  </si>
+  <si>
+    <t>Ontginning - schouwingsverslagen</t>
+  </si>
+  <si>
+    <t>Ontginning – werkplan</t>
+  </si>
+  <si>
+    <t>toegangsplan</t>
+  </si>
+  <si>
+    <t>vergunningsbesluit</t>
+  </si>
+  <si>
     <t>opdracht</t>
   </si>
   <si>
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-07-19 16:18:47.231254</t>
-  </si>
-  <si>
-    <t>Version</t>
+    <t>2024-07-23 17:11:38.008284</t>
+  </si>
+  <si>
+    <t>version</t>
   </si>
   <si>
     <t>1.0.0</t>
@@ -4001,6 +4271,26 @@
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="W3:X8" totalsRowShown="0">
+  <tableColumns count="2">
+    <tableColumn id="1" name="Code"/>
+    <tableColumn id="2" name="Beschrijving"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table13" displayName="Table13" ref="Y3:Z17" totalsRowShown="0">
+  <tableColumns count="2">
+    <tableColumn id="1" name="Code"/>
+    <tableColumn id="2" name="Beschrijving"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table14" displayName="Table14" ref="AA3:AB60" totalsRowShown="0">
   <tableColumns count="2">
     <tableColumn id="1" name="Code"/>
     <tableColumn id="2" name="Beschrijving"/>
@@ -4374,16 +4664,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X954"/>
+  <dimension ref="A1:AB954"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="25" width="10.7109375" customWidth="1"/>
+    <col min="1" max="29" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:28">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -4411,11 +4701,15 @@
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1" t="s">
-        <v>1279</v>
+        <v>1369</v>
       </c>
       <c r="X1" s="1"/>
-    </row>
-    <row r="2" spans="1:24">
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+    </row>
+    <row r="2" spans="1:28">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -4464,8 +4758,16 @@
         <v>1273</v>
       </c>
       <c r="X2" s="1"/>
-    </row>
-    <row r="3" spans="1:24">
+      <c r="Y2" s="1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1" t="s">
+        <v>1287</v>
+      </c>
+      <c r="AB2" s="1"/>
+    </row>
+    <row r="3" spans="1:28">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -4538,8 +4840,20 @@
       <c r="X3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:24">
+      <c r="Y3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -4607,13 +4921,25 @@
         <v>23</v>
       </c>
       <c r="W4" t="s">
-        <v>1274</v>
+        <v>1295</v>
       </c>
       <c r="X4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:24">
+      <c r="Y4" t="s">
+        <v>1300</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>1314</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -4681,13 +5007,25 @@
         <v>23</v>
       </c>
       <c r="W5" t="s">
-        <v>1275</v>
+        <v>1296</v>
       </c>
       <c r="X5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:24">
+      <c r="Y5" t="s">
+        <v>1301</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>1315</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -4749,13 +5087,25 @@
         <v>23</v>
       </c>
       <c r="W6" t="s">
-        <v>1276</v>
+        <v>1297</v>
       </c>
       <c r="X6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:24">
+      <c r="Y6" t="s">
+        <v>1302</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>1313</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
       <c r="C7" t="s">
         <v>93</v>
       </c>
@@ -4799,13 +5149,25 @@
         <v>23</v>
       </c>
       <c r="W7" t="s">
-        <v>1277</v>
+        <v>1298</v>
       </c>
       <c r="X7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:24">
+      <c r="Y7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>1316</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
       <c r="C8" t="s">
         <v>94</v>
       </c>
@@ -4849,13 +5211,25 @@
         <v>23</v>
       </c>
       <c r="W8" t="s">
-        <v>1278</v>
+        <v>1299</v>
       </c>
       <c r="X8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:24">
+      <c r="Y8" t="s">
+        <v>1304</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>1317</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
       <c r="C9" t="s">
         <v>95</v>
       </c>
@@ -4898,8 +5272,20 @@
       <c r="V9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:24">
+      <c r="Y9" t="s">
+        <v>1305</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
       <c r="C10" t="s">
         <v>96</v>
       </c>
@@ -4942,8 +5328,20 @@
       <c r="V10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:24">
+      <c r="Y10" t="s">
+        <v>1306</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>1318</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
       <c r="C11" t="s">
         <v>97</v>
       </c>
@@ -4986,8 +5384,20 @@
       <c r="V11" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:24">
+      <c r="Y11" t="s">
+        <v>1307</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>1319</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
       <c r="E12" t="s">
         <v>106</v>
       </c>
@@ -5024,8 +5434,20 @@
       <c r="V12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:24">
+      <c r="Y12" t="s">
+        <v>1308</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>1320</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
       <c r="E13" t="s">
         <v>107</v>
       </c>
@@ -5062,8 +5484,20 @@
       <c r="V13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:24">
+      <c r="Y13" t="s">
+        <v>1309</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>1321</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
       <c r="E14" t="s">
         <v>108</v>
       </c>
@@ -5100,8 +5534,20 @@
       <c r="V14" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:24">
+      <c r="Y14" t="s">
+        <v>1310</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>1322</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
       <c r="E15" t="s">
         <v>109</v>
       </c>
@@ -5138,8 +5584,20 @@
       <c r="V15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="16" spans="1:24">
+      <c r="Y15" t="s">
+        <v>1311</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>1323</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
       <c r="E16" t="s">
         <v>110</v>
       </c>
@@ -5176,8 +5634,20 @@
       <c r="V16" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="17" spans="5:22">
+      <c r="Y16" t="s">
+        <v>1312</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>1324</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="5:28">
       <c r="E17" t="s">
         <v>111</v>
       </c>
@@ -5214,8 +5684,20 @@
       <c r="V17" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="18" spans="5:22">
+      <c r="Y17" t="s">
+        <v>1313</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>1325</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="5:28">
       <c r="E18" t="s">
         <v>112</v>
       </c>
@@ -5252,8 +5734,14 @@
       <c r="V18" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="19" spans="5:22">
+      <c r="AA18" t="s">
+        <v>1326</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="5:28">
       <c r="E19" t="s">
         <v>113</v>
       </c>
@@ -5290,8 +5778,14 @@
       <c r="V19" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="20" spans="5:22">
+      <c r="AA19" t="s">
+        <v>1327</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="5:28">
       <c r="E20" t="s">
         <v>114</v>
       </c>
@@ -5328,8 +5822,14 @@
       <c r="V20" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="5:22">
+      <c r="AA20" t="s">
+        <v>1328</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="5:28">
       <c r="E21" t="s">
         <v>115</v>
       </c>
@@ -5366,8 +5866,14 @@
       <c r="V21" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="22" spans="5:22">
+      <c r="AA21" t="s">
+        <v>1329</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="5:28">
       <c r="E22" t="s">
         <v>116</v>
       </c>
@@ -5404,8 +5910,14 @@
       <c r="V22" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="5:22">
+      <c r="AA22" t="s">
+        <v>1330</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="5:28">
       <c r="E23" t="s">
         <v>117</v>
       </c>
@@ -5442,8 +5954,14 @@
       <c r="V23" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="5:22">
+      <c r="AA23" t="s">
+        <v>1331</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="5:28">
       <c r="E24" t="s">
         <v>118</v>
       </c>
@@ -5480,8 +5998,14 @@
       <c r="V24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="5:22">
+      <c r="AA24" t="s">
+        <v>1332</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="5:28">
       <c r="E25" t="s">
         <v>119</v>
       </c>
@@ -5518,8 +6042,14 @@
       <c r="V25" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="5:22">
+      <c r="AA25" t="s">
+        <v>1333</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="5:28">
       <c r="E26" t="s">
         <v>120</v>
       </c>
@@ -5556,8 +6086,14 @@
       <c r="V26" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="27" spans="5:22">
+      <c r="AA26" t="s">
+        <v>1334</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="5:28">
       <c r="E27" t="s">
         <v>121</v>
       </c>
@@ -5594,8 +6130,14 @@
       <c r="V27" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="28" spans="5:22">
+      <c r="AA27" t="s">
+        <v>1335</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="5:28">
       <c r="E28" t="s">
         <v>122</v>
       </c>
@@ -5632,8 +6174,14 @@
       <c r="V28" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="29" spans="5:22">
+      <c r="AA28" t="s">
+        <v>1336</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="5:28">
       <c r="E29" t="s">
         <v>123</v>
       </c>
@@ -5670,8 +6218,14 @@
       <c r="V29" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="30" spans="5:22">
+      <c r="AA29" t="s">
+        <v>1337</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="5:28">
       <c r="E30" t="s">
         <v>124</v>
       </c>
@@ -5708,8 +6262,14 @@
       <c r="V30" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="31" spans="5:22">
+      <c r="AA30" t="s">
+        <v>1338</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="5:28">
       <c r="E31" t="s">
         <v>125</v>
       </c>
@@ -5746,8 +6306,14 @@
       <c r="V31" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="32" spans="5:22">
+      <c r="AA31" t="s">
+        <v>1339</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="5:28">
       <c r="E32" t="s">
         <v>126</v>
       </c>
@@ -5784,8 +6350,14 @@
       <c r="V32" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="33" spans="5:22">
+      <c r="AA32" t="s">
+        <v>1340</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="5:28">
       <c r="E33" t="s">
         <v>127</v>
       </c>
@@ -5822,8 +6394,14 @@
       <c r="V33" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="34" spans="5:22">
+      <c r="AA33" t="s">
+        <v>1341</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="5:28">
       <c r="E34" t="s">
         <v>128</v>
       </c>
@@ -5860,8 +6438,14 @@
       <c r="V34" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="35" spans="5:22">
+      <c r="AA34" t="s">
+        <v>1342</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="5:28">
       <c r="E35" t="s">
         <v>129</v>
       </c>
@@ -5898,8 +6482,14 @@
       <c r="V35" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="36" spans="5:22">
+      <c r="AA35" t="s">
+        <v>1343</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="5:28">
       <c r="E36" t="s">
         <v>130</v>
       </c>
@@ -5936,8 +6526,14 @@
       <c r="V36" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="37" spans="5:22">
+      <c r="AA36" t="s">
+        <v>1344</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="5:28">
       <c r="E37" t="s">
         <v>131</v>
       </c>
@@ -5974,8 +6570,14 @@
       <c r="V37" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="38" spans="5:22">
+      <c r="AA37" t="s">
+        <v>1345</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="5:28">
       <c r="E38" t="s">
         <v>132</v>
       </c>
@@ -6012,8 +6614,14 @@
       <c r="V38" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="39" spans="5:22">
+      <c r="AA38" t="s">
+        <v>1346</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="5:28">
       <c r="E39" t="s">
         <v>133</v>
       </c>
@@ -6050,8 +6658,14 @@
       <c r="V39" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="40" spans="5:22">
+      <c r="AA39" t="s">
+        <v>1347</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="5:28">
       <c r="E40" t="s">
         <v>134</v>
       </c>
@@ -6088,8 +6702,14 @@
       <c r="V40" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="41" spans="5:22">
+      <c r="AA40" t="s">
+        <v>1348</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="5:28">
       <c r="E41" t="s">
         <v>135</v>
       </c>
@@ -6126,8 +6746,14 @@
       <c r="V41" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="42" spans="5:22">
+      <c r="AA41" t="s">
+        <v>1349</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="5:28">
       <c r="E42" t="s">
         <v>136</v>
       </c>
@@ -6164,8 +6790,14 @@
       <c r="V42" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="43" spans="5:22">
+      <c r="AA42" t="s">
+        <v>1350</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="5:28">
       <c r="E43" t="s">
         <v>137</v>
       </c>
@@ -6202,8 +6834,14 @@
       <c r="V43" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="44" spans="5:22">
+      <c r="AA43" t="s">
+        <v>1351</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="5:28">
       <c r="E44" t="s">
         <v>138</v>
       </c>
@@ -6240,8 +6878,14 @@
       <c r="V44" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="45" spans="5:22">
+      <c r="AA44" t="s">
+        <v>1352</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="5:28">
       <c r="E45" t="s">
         <v>139</v>
       </c>
@@ -6278,8 +6922,14 @@
       <c r="V45" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="46" spans="5:22">
+      <c r="AA45" t="s">
+        <v>1353</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="5:28">
       <c r="E46" t="s">
         <v>140</v>
       </c>
@@ -6316,8 +6966,14 @@
       <c r="V46" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="47" spans="5:22">
+      <c r="AA46" t="s">
+        <v>1354</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="5:28">
       <c r="E47" t="s">
         <v>141</v>
       </c>
@@ -6354,8 +7010,14 @@
       <c r="V47" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="48" spans="5:22">
+      <c r="AA47" t="s">
+        <v>1355</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="5:28">
       <c r="E48" t="s">
         <v>142</v>
       </c>
@@ -6392,8 +7054,14 @@
       <c r="V48" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="49" spans="5:22">
+      <c r="AA48" t="s">
+        <v>1356</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="5:28">
       <c r="E49" t="s">
         <v>143</v>
       </c>
@@ -6430,8 +7098,14 @@
       <c r="V49" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="50" spans="5:22">
+      <c r="AA49" t="s">
+        <v>1357</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="5:28">
       <c r="E50" t="s">
         <v>144</v>
       </c>
@@ -6468,8 +7142,14 @@
       <c r="V50" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="51" spans="5:22">
+      <c r="AA50" t="s">
+        <v>1358</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="5:28">
       <c r="E51" t="s">
         <v>145</v>
       </c>
@@ -6506,8 +7186,14 @@
       <c r="V51" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="52" spans="5:22">
+      <c r="AA51" t="s">
+        <v>1359</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="5:28">
       <c r="E52" t="s">
         <v>146</v>
       </c>
@@ -6544,8 +7230,14 @@
       <c r="V52" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="53" spans="5:22">
+      <c r="AA52" t="s">
+        <v>1360</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="5:28">
       <c r="E53" t="s">
         <v>147</v>
       </c>
@@ -6582,8 +7274,14 @@
       <c r="V53" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="54" spans="5:22">
+      <c r="AA53" t="s">
+        <v>1361</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="5:28">
       <c r="E54" t="s">
         <v>148</v>
       </c>
@@ -6620,8 +7318,14 @@
       <c r="V54" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="55" spans="5:22">
+      <c r="AA54" t="s">
+        <v>1362</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="5:28">
       <c r="E55" t="s">
         <v>149</v>
       </c>
@@ -6658,8 +7362,14 @@
       <c r="V55" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="56" spans="5:22">
+      <c r="AA55" t="s">
+        <v>1363</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="5:28">
       <c r="E56" t="s">
         <v>150</v>
       </c>
@@ -6696,8 +7406,14 @@
       <c r="V56" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="57" spans="5:22">
+      <c r="AA56" t="s">
+        <v>1364</v>
+      </c>
+      <c r="AB56" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="5:28">
       <c r="E57" t="s">
         <v>151</v>
       </c>
@@ -6734,8 +7450,14 @@
       <c r="V57" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="58" spans="5:22">
+      <c r="AA57" t="s">
+        <v>1365</v>
+      </c>
+      <c r="AB57" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="5:28">
       <c r="E58" t="s">
         <v>152</v>
       </c>
@@ -6772,8 +7494,14 @@
       <c r="V58" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="59" spans="5:22">
+      <c r="AA58" t="s">
+        <v>1366</v>
+      </c>
+      <c r="AB58" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="5:28">
       <c r="E59" t="s">
         <v>153</v>
       </c>
@@ -6810,8 +7538,14 @@
       <c r="V59" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="60" spans="5:22">
+      <c r="AA59" t="s">
+        <v>1367</v>
+      </c>
+      <c r="AB59" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="5:28">
       <c r="E60" t="s">
         <v>154</v>
       </c>
@@ -6848,8 +7582,14 @@
       <c r="V60" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="61" spans="5:22">
+      <c r="AA60" t="s">
+        <v>1368</v>
+      </c>
+      <c r="AB60" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="5:28">
       <c r="E61" t="s">
         <v>155</v>
       </c>
@@ -6887,7 +7627,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="5:22">
+    <row r="62" spans="5:28">
       <c r="E62" t="s">
         <v>156</v>
       </c>
@@ -6925,7 +7665,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="5:22">
+    <row r="63" spans="5:28">
       <c r="E63" t="s">
         <v>157</v>
       </c>
@@ -6963,7 +7703,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="5:22">
+    <row r="64" spans="5:28">
       <c r="E64" t="s">
         <v>158</v>
       </c>
@@ -25168,7 +25908,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="17">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C2:D2"/>
@@ -25183,10 +25923,12 @@
     <mergeCell ref="U2:V2"/>
     <mergeCell ref="C1:V1"/>
     <mergeCell ref="W2:X2"/>
-    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="W1:AB1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="12">
+  <tableParts count="14">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
@@ -25199,6 +25941,8 @@
     <tablePart r:id="rId10"/>
     <tablePart r:id="rId11"/>
     <tablePart r:id="rId12"/>
+    <tablePart r:id="rId13"/>
+    <tablePart r:id="rId14"/>
   </tableParts>
 </worksheet>
 </file>
@@ -25920,7 +26664,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -25933,10 +26677,19 @@
     <col min="6" max="6" width="18.7109375" style="6" customWidth="1"/>
     <col min="7" max="7" width="52.7109375" style="2" customWidth="1"/>
     <col min="8" max="8" width="22.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="34.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="26.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="44.7109375" style="6" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="42.7109375" style="7" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="48.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="40.7109375" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="40.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="44.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="36.7109375" style="2" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" hidden="1">
+    <row r="1" spans="1:18" hidden="1">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -25964,8 +26717,35 @@
       <c r="I1" s="1" t="s">
         <v>1273</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" hidden="1">
+      <c r="J1" s="1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>1282</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>1287</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" hidden="1">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -25991,8 +26771,23 @@
       <c r="I2" s="1" t="s">
         <v>1273</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" hidden="1">
+      <c r="J2" s="1" t="s">
+        <v>1276</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1" t="s">
+        <v>1294</v>
+      </c>
+      <c r="R2" s="1"/>
+    </row>
+    <row r="3" spans="1:18" hidden="1">
       <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
@@ -26008,8 +26803,31 @@
       <c r="H3" s="5" t="s">
         <v>1271</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" hidden="1">
+      <c r="J3" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>1278</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5" t="s">
+        <v>1286</v>
+      </c>
+      <c r="O3" s="5"/>
+      <c r="P3" s="1" t="s">
+        <v>1288</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>1291</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" hidden="1">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
@@ -26019,8 +26837,20 @@
       <c r="D4" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="L4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>1283</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -26048,12 +26878,43 @@
       <c r="I5" s="1" t="s">
         <v>1273</v>
       </c>
+      <c r="J5" s="1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>1282</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>1287</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>1292</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="5">
     <mergeCell ref="G2:H2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="K2:P2"/>
+    <mergeCell ref="Q2:R2"/>
   </mergeCells>
-  <dataValidations count="3">
+  <dataValidations count="6">
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E1000001">
       <formula1>-146096</formula1>
     </dataValidation>
@@ -26063,9 +26924,20 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I1000001">
       <formula1>'Codelijsten'!$W$4:$W$8</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J6:J1000001">
+      <formula1>'Codelijsten'!$Y$4:$Y$17</formula1>
+    </dataValidation>
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6:L1000001">
+      <formula1>-146096</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P6:P1000001">
+      <formula1>'Codelijsten'!$AA$4:$AA$60</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="I5" location="'Codelijsten'!$W$2" display="status"/>
+    <hyperlink ref="J5" location="'Codelijsten'!$Y$2" display="kwaliteit-origine"/>
+    <hyperlink ref="P5" location="'Codelijsten'!$AA$2" display="bijlage-bijlage_type"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -26081,18 +26953,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>1280</v>
+        <v>1370</v>
       </c>
       <c r="B1" t="s">
-        <v>1281</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1282</v>
+        <v>1372</v>
       </c>
       <c r="B2" t="s">
-        <v>1283</v>
+        <v>1373</v>
       </c>
     </row>
   </sheetData>

--- a/data/geologie_template.xlsx
+++ b/data/geologie_template.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6661" uniqueCount="1374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6663" uniqueCount="1376">
   <si>
     <t>identificatie</t>
   </si>
@@ -4134,13 +4134,19 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-07-23 17:11:38.008284</t>
+    <t>2024-07-23 17:34:46.482692</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
     <t>1.0.0</t>
+  </si>
+  <si>
+    <t>generated_by</t>
+  </si>
+  <si>
+    <t>Ruben Vijverman</t>
   </si>
 </sst>
 </file>
@@ -26945,7 +26951,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -26967,6 +26973,14 @@
         <v>1373</v>
       </c>
     </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1375</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/geologie_template.xlsx
+++ b/data/geologie_template.xlsx
@@ -4134,7 +4134,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-07-23 17:34:46.482692</t>
+    <t>2024-07-24 08:44:24.887174</t>
   </si>
   <si>
     <t>version</t>

--- a/data/geologie_template.xlsx
+++ b/data/geologie_template.xlsx
@@ -4134,7 +4134,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-07-24 08:44:24.887174</t>
+    <t>2024-07-24 09:00:01.658569</t>
   </si>
   <si>
     <t>version</t>

--- a/data/geologie_template.xlsx
+++ b/data/geologie_template.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6663" uniqueCount="1376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6721" uniqueCount="1411">
   <si>
     <t>identificatie</t>
   </si>
@@ -3819,12 +3819,30 @@
     <t>dataleverancier</t>
   </si>
   <si>
+    <t>kwaliteit-aard</t>
+  </si>
+  <si>
+    <t>aard</t>
+  </si>
+  <si>
+    <t>kwaliteit-origine</t>
+  </si>
+  <si>
+    <t>origine</t>
+  </si>
+  <si>
+    <t>kwaliteit</t>
+  </si>
+  <si>
     <t>startdatum</t>
   </si>
   <si>
     <t>einddatum</t>
   </si>
   <si>
+    <t>omschrijving</t>
+  </si>
+  <si>
     <t>locatie-coordinatenstelsel</t>
   </si>
   <si>
@@ -3843,15 +3861,6 @@
     <t>status</t>
   </si>
   <si>
-    <t>kwaliteit-origine</t>
-  </si>
-  <si>
-    <t>origine</t>
-  </si>
-  <si>
-    <t>kwaliteit</t>
-  </si>
-  <si>
     <t>bijlage-titel</t>
   </si>
   <si>
@@ -3906,6 +3915,126 @@
     <t>dataidentifier</t>
   </si>
   <si>
+    <t>Geologisch onderzoek</t>
+  </si>
+  <si>
+    <t>Exploratie minerale bronnen</t>
+  </si>
+  <si>
+    <t>Exploitatie minerale bronnen</t>
+  </si>
+  <si>
+    <t>Exploratie energie bronnen</t>
+  </si>
+  <si>
+    <t>Exploitatie energie bronnen</t>
+  </si>
+  <si>
+    <t>Geothermie</t>
+  </si>
+  <si>
+    <t>Berging</t>
+  </si>
+  <si>
+    <t>Exploratie ondergrondse opslag</t>
+  </si>
+  <si>
+    <t>Grondwaterwinning</t>
+  </si>
+  <si>
+    <t>Geofysisch onderzoek</t>
+  </si>
+  <si>
+    <t>Hydrogeologisch onderzoek</t>
+  </si>
+  <si>
+    <t>Bodemkundig onderzoek</t>
+  </si>
+  <si>
+    <t>Geotechnisch onderzoek</t>
+  </si>
+  <si>
+    <t>Geochemisch onderzoek</t>
+  </si>
+  <si>
+    <t>Grondwaterkwaliteit monitoring</t>
+  </si>
+  <si>
+    <t>Grondwaterkwantiteit monitoring</t>
+  </si>
+  <si>
+    <t>Monitoring vervuilde sites</t>
+  </si>
+  <si>
+    <t>Drainage en bemaling</t>
+  </si>
+  <si>
+    <t>Sanering</t>
+  </si>
+  <si>
+    <t>Infiltratie</t>
+  </si>
+  <si>
+    <t>Meerdere</t>
+  </si>
+  <si>
+    <t>Bodemchemisch en bodemfysisch onderzoek</t>
+  </si>
+  <si>
+    <t>PFAS onderzoek</t>
+  </si>
+  <si>
+    <t>CTE onderzoek</t>
+  </si>
+  <si>
+    <t>VLAREM</t>
+  </si>
+  <si>
+    <t>VLAREL</t>
+  </si>
+  <si>
+    <t>Oppervlaktedelfstoffendecreet</t>
+  </si>
+  <si>
+    <t>Decreet Diepe Ondergrond</t>
+  </si>
+  <si>
+    <t>andere wettelijke verplichting</t>
+  </si>
+  <si>
+    <t>uitgevoerd voor kartering</t>
+  </si>
+  <si>
+    <t>gebruikt in kartering</t>
+  </si>
+  <si>
+    <t>uitgevoerd voor modellering</t>
+  </si>
+  <si>
+    <t>gebruikt in modellering</t>
+  </si>
+  <si>
+    <t>archiefinvoer</t>
+  </si>
+  <si>
+    <t>wetenschappelijk onderzoek</t>
+  </si>
+  <si>
+    <t>studies/projecten</t>
+  </si>
+  <si>
+    <t>Archeologieregelgeving</t>
+  </si>
+  <si>
+    <t>andere</t>
+  </si>
+  <si>
+    <t>geometrie coördinatenstelsel</t>
+  </si>
+  <si>
+    <t>geometrie wkt</t>
+  </si>
+  <si>
     <t>publiek</t>
   </si>
   <si>
@@ -3921,46 +4050,22 @@
     <t>intern afgewerkt</t>
   </si>
   <si>
-    <t>VLAREM</t>
-  </si>
-  <si>
-    <t>VLAREL</t>
-  </si>
-  <si>
-    <t>Oppervlaktedelfstoffendecreet</t>
-  </si>
-  <si>
-    <t>Decreet Diepe Ondergrond</t>
-  </si>
-  <si>
-    <t>andere wettelijke verplichting</t>
-  </si>
-  <si>
-    <t>uitgevoerd voor kartering</t>
-  </si>
-  <si>
-    <t>gebruikt in kartering</t>
-  </si>
-  <si>
-    <t>uitgevoerd voor modellering</t>
-  </si>
-  <si>
-    <t>gebruikt in modellering</t>
-  </si>
-  <si>
-    <t>archiefinvoer</t>
-  </si>
-  <si>
-    <t>wetenschappelijk onderzoek</t>
-  </si>
-  <si>
-    <t>studies/projecten</t>
-  </si>
-  <si>
-    <t>Archeologieregelgeving</t>
-  </si>
-  <si>
-    <t>andere</t>
+    <t>bijlage titel</t>
+  </si>
+  <si>
+    <t>datum bijlage</t>
+  </si>
+  <si>
+    <t>jaar bijlage</t>
+  </si>
+  <si>
+    <t>bestand bijlage</t>
+  </si>
+  <si>
+    <t>URL bijlage</t>
+  </si>
+  <si>
+    <t>type bijlage</t>
   </si>
   <si>
     <t>edov</t>
@@ -4134,7 +4239,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-07-24 09:00:01.658569</t>
+    <t>2024-07-24 13:26:30.886745</t>
   </si>
   <si>
     <t>version</t>
@@ -4276,7 +4381,7 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="W3:X8" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="W3:X27" totalsRowShown="0">
   <tableColumns count="2">
     <tableColumn id="1" name="Code"/>
     <tableColumn id="2" name="Beschrijving"/>
@@ -4296,7 +4401,17 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table14" displayName="Table14" ref="AA3:AB60" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table14" displayName="Table14" ref="AA3:AB8" totalsRowShown="0">
+  <tableColumns count="2">
+    <tableColumn id="1" name="Code"/>
+    <tableColumn id="2" name="Beschrijving"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table15" displayName="Table15" ref="AC3:AD60" totalsRowShown="0">
   <tableColumns count="2">
     <tableColumn id="1" name="Code"/>
     <tableColumn id="2" name="Beschrijving"/>
@@ -4670,16 +4785,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB954"/>
+  <dimension ref="A1:AD954"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="29" width="10.7109375" customWidth="1"/>
+    <col min="1" max="31" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:30">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -4707,15 +4822,17 @@
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1" t="s">
-        <v>1369</v>
+        <v>1404</v>
       </c>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
-    </row>
-    <row r="2" spans="1:28">
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+    </row>
+    <row r="2" spans="1:30">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -4761,19 +4878,23 @@
       </c>
       <c r="V2" s="1"/>
       <c r="W2" s="1" t="s">
-        <v>1273</v>
+        <v>1267</v>
       </c>
       <c r="X2" s="1"/>
       <c r="Y2" s="1" t="s">
-        <v>1274</v>
+        <v>1269</v>
       </c>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1" t="s">
-        <v>1287</v>
+        <v>1279</v>
       </c>
       <c r="AB2" s="1"/>
-    </row>
-    <row r="3" spans="1:28">
+      <c r="AC2" s="1" t="s">
+        <v>1348</v>
+      </c>
+      <c r="AD2" s="1"/>
+    </row>
+    <row r="3" spans="1:30">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -4858,8 +4979,14 @@
       <c r="AB3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:28">
+      <c r="AC3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -4927,25 +5054,31 @@
         <v>23</v>
       </c>
       <c r="W4" t="s">
-        <v>1295</v>
+        <v>1298</v>
       </c>
       <c r="X4" t="s">
         <v>23</v>
       </c>
       <c r="Y4" t="s">
-        <v>1300</v>
+        <v>1322</v>
       </c>
       <c r="Z4" t="s">
         <v>23</v>
       </c>
       <c r="AA4" t="s">
-        <v>1314</v>
+        <v>1338</v>
       </c>
       <c r="AB4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:28">
+      <c r="AC4" t="s">
+        <v>1349</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -5013,25 +5146,31 @@
         <v>23</v>
       </c>
       <c r="W5" t="s">
-        <v>1296</v>
+        <v>1299</v>
       </c>
       <c r="X5" t="s">
         <v>23</v>
       </c>
       <c r="Y5" t="s">
-        <v>1301</v>
+        <v>1323</v>
       </c>
       <c r="Z5" t="s">
         <v>23</v>
       </c>
       <c r="AA5" t="s">
-        <v>1315</v>
+        <v>1339</v>
       </c>
       <c r="AB5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:28">
+      <c r="AC5" t="s">
+        <v>1350</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -5093,25 +5232,31 @@
         <v>23</v>
       </c>
       <c r="W6" t="s">
-        <v>1297</v>
+        <v>1300</v>
       </c>
       <c r="X6" t="s">
         <v>23</v>
       </c>
       <c r="Y6" t="s">
-        <v>1302</v>
+        <v>1324</v>
       </c>
       <c r="Z6" t="s">
         <v>23</v>
       </c>
       <c r="AA6" t="s">
-        <v>1313</v>
+        <v>1340</v>
       </c>
       <c r="AB6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:28">
+      <c r="AC6" t="s">
+        <v>1335</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30">
       <c r="C7" t="s">
         <v>93</v>
       </c>
@@ -5155,25 +5300,31 @@
         <v>23</v>
       </c>
       <c r="W7" t="s">
-        <v>1298</v>
+        <v>1301</v>
       </c>
       <c r="X7" t="s">
         <v>23</v>
       </c>
       <c r="Y7" t="s">
-        <v>1303</v>
+        <v>1325</v>
       </c>
       <c r="Z7" t="s">
         <v>23</v>
       </c>
       <c r="AA7" t="s">
-        <v>1316</v>
+        <v>1341</v>
       </c>
       <c r="AB7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:28">
+      <c r="AC7" t="s">
+        <v>1351</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30">
       <c r="C8" t="s">
         <v>94</v>
       </c>
@@ -5217,25 +5368,31 @@
         <v>23</v>
       </c>
       <c r="W8" t="s">
-        <v>1299</v>
+        <v>1302</v>
       </c>
       <c r="X8" t="s">
         <v>23</v>
       </c>
       <c r="Y8" t="s">
-        <v>1304</v>
+        <v>1326</v>
       </c>
       <c r="Z8" t="s">
         <v>23</v>
       </c>
       <c r="AA8" t="s">
-        <v>1317</v>
+        <v>1342</v>
       </c>
       <c r="AB8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:28">
+      <c r="AC8" t="s">
+        <v>1352</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30">
       <c r="C9" t="s">
         <v>95</v>
       </c>
@@ -5278,20 +5435,26 @@
       <c r="V9" t="s">
         <v>23</v>
       </c>
+      <c r="W9" t="s">
+        <v>1303</v>
+      </c>
+      <c r="X9" t="s">
+        <v>23</v>
+      </c>
       <c r="Y9" t="s">
-        <v>1305</v>
+        <v>1327</v>
       </c>
       <c r="Z9" t="s">
         <v>23</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AC9" t="s">
         <v>88</v>
       </c>
-      <c r="AB9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28">
+      <c r="AD9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30">
       <c r="C10" t="s">
         <v>96</v>
       </c>
@@ -5334,20 +5497,26 @@
       <c r="V10" t="s">
         <v>23</v>
       </c>
+      <c r="W10" t="s">
+        <v>1304</v>
+      </c>
+      <c r="X10" t="s">
+        <v>23</v>
+      </c>
       <c r="Y10" t="s">
-        <v>1306</v>
+        <v>1328</v>
       </c>
       <c r="Z10" t="s">
         <v>23</v>
       </c>
-      <c r="AA10" t="s">
-        <v>1318</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28">
+      <c r="AC10" t="s">
+        <v>1353</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30">
       <c r="C11" t="s">
         <v>97</v>
       </c>
@@ -5390,20 +5559,26 @@
       <c r="V11" t="s">
         <v>23</v>
       </c>
+      <c r="W11" t="s">
+        <v>1305</v>
+      </c>
+      <c r="X11" t="s">
+        <v>23</v>
+      </c>
       <c r="Y11" t="s">
-        <v>1307</v>
+        <v>1329</v>
       </c>
       <c r="Z11" t="s">
         <v>23</v>
       </c>
-      <c r="AA11" t="s">
-        <v>1319</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28">
+      <c r="AC11" t="s">
+        <v>1354</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30">
       <c r="E12" t="s">
         <v>106</v>
       </c>
@@ -5440,20 +5615,26 @@
       <c r="V12" t="s">
         <v>23</v>
       </c>
+      <c r="W12" t="s">
+        <v>1306</v>
+      </c>
+      <c r="X12" t="s">
+        <v>23</v>
+      </c>
       <c r="Y12" t="s">
-        <v>1308</v>
+        <v>1330</v>
       </c>
       <c r="Z12" t="s">
         <v>23</v>
       </c>
-      <c r="AA12" t="s">
-        <v>1320</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28">
+      <c r="AC12" t="s">
+        <v>1355</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30">
       <c r="E13" t="s">
         <v>107</v>
       </c>
@@ -5490,20 +5671,26 @@
       <c r="V13" t="s">
         <v>23</v>
       </c>
+      <c r="W13" t="s">
+        <v>1307</v>
+      </c>
+      <c r="X13" t="s">
+        <v>23</v>
+      </c>
       <c r="Y13" t="s">
-        <v>1309</v>
+        <v>1331</v>
       </c>
       <c r="Z13" t="s">
         <v>23</v>
       </c>
-      <c r="AA13" t="s">
-        <v>1321</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28">
+      <c r="AC13" t="s">
+        <v>1356</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30">
       <c r="E14" t="s">
         <v>108</v>
       </c>
@@ -5540,20 +5727,26 @@
       <c r="V14" t="s">
         <v>23</v>
       </c>
+      <c r="W14" t="s">
+        <v>1308</v>
+      </c>
+      <c r="X14" t="s">
+        <v>23</v>
+      </c>
       <c r="Y14" t="s">
-        <v>1310</v>
+        <v>1332</v>
       </c>
       <c r="Z14" t="s">
         <v>23</v>
       </c>
-      <c r="AA14" t="s">
-        <v>1322</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28">
+      <c r="AC14" t="s">
+        <v>1357</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30">
       <c r="E15" t="s">
         <v>109</v>
       </c>
@@ -5590,20 +5783,26 @@
       <c r="V15" t="s">
         <v>23</v>
       </c>
+      <c r="W15" t="s">
+        <v>1309</v>
+      </c>
+      <c r="X15" t="s">
+        <v>23</v>
+      </c>
       <c r="Y15" t="s">
-        <v>1311</v>
+        <v>1333</v>
       </c>
       <c r="Z15" t="s">
         <v>23</v>
       </c>
-      <c r="AA15" t="s">
-        <v>1323</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28">
+      <c r="AC15" t="s">
+        <v>1358</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30">
       <c r="E16" t="s">
         <v>110</v>
       </c>
@@ -5640,20 +5839,26 @@
       <c r="V16" t="s">
         <v>23</v>
       </c>
+      <c r="W16" t="s">
+        <v>1310</v>
+      </c>
+      <c r="X16" t="s">
+        <v>23</v>
+      </c>
       <c r="Y16" t="s">
-        <v>1312</v>
+        <v>1334</v>
       </c>
       <c r="Z16" t="s">
         <v>23</v>
       </c>
-      <c r="AA16" t="s">
-        <v>1324</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="5:28">
+      <c r="AC16" t="s">
+        <v>1359</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="5:30">
       <c r="E17" t="s">
         <v>111</v>
       </c>
@@ -5690,20 +5895,26 @@
       <c r="V17" t="s">
         <v>23</v>
       </c>
+      <c r="W17" t="s">
+        <v>1311</v>
+      </c>
+      <c r="X17" t="s">
+        <v>23</v>
+      </c>
       <c r="Y17" t="s">
-        <v>1313</v>
+        <v>1335</v>
       </c>
       <c r="Z17" t="s">
         <v>23</v>
       </c>
-      <c r="AA17" t="s">
-        <v>1325</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="5:28">
+      <c r="AC17" t="s">
+        <v>1360</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="5:30">
       <c r="E18" t="s">
         <v>112</v>
       </c>
@@ -5740,14 +5951,20 @@
       <c r="V18" t="s">
         <v>23</v>
       </c>
-      <c r="AA18" t="s">
-        <v>1326</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="5:28">
+      <c r="W18" t="s">
+        <v>1312</v>
+      </c>
+      <c r="X18" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>1361</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="5:30">
       <c r="E19" t="s">
         <v>113</v>
       </c>
@@ -5784,14 +6001,20 @@
       <c r="V19" t="s">
         <v>23</v>
       </c>
-      <c r="AA19" t="s">
-        <v>1327</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="5:28">
+      <c r="W19" t="s">
+        <v>1313</v>
+      </c>
+      <c r="X19" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>1362</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="5:30">
       <c r="E20" t="s">
         <v>114</v>
       </c>
@@ -5828,14 +6051,20 @@
       <c r="V20" t="s">
         <v>23</v>
       </c>
-      <c r="AA20" t="s">
-        <v>1328</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="5:28">
+      <c r="W20" t="s">
+        <v>1314</v>
+      </c>
+      <c r="X20" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>1363</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="5:30">
       <c r="E21" t="s">
         <v>115</v>
       </c>
@@ -5872,14 +6101,20 @@
       <c r="V21" t="s">
         <v>23</v>
       </c>
-      <c r="AA21" t="s">
-        <v>1329</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="5:28">
+      <c r="W21" t="s">
+        <v>1315</v>
+      </c>
+      <c r="X21" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>1364</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="5:30">
       <c r="E22" t="s">
         <v>116</v>
       </c>
@@ -5916,14 +6151,20 @@
       <c r="V22" t="s">
         <v>23</v>
       </c>
-      <c r="AA22" t="s">
-        <v>1330</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="5:28">
+      <c r="W22" t="s">
+        <v>1316</v>
+      </c>
+      <c r="X22" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>1365</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="5:30">
       <c r="E23" t="s">
         <v>117</v>
       </c>
@@ -5960,14 +6201,20 @@
       <c r="V23" t="s">
         <v>23</v>
       </c>
-      <c r="AA23" t="s">
-        <v>1331</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="5:28">
+      <c r="W23" t="s">
+        <v>1317</v>
+      </c>
+      <c r="X23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>1366</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="5:30">
       <c r="E24" t="s">
         <v>118</v>
       </c>
@@ -6004,14 +6251,20 @@
       <c r="V24" t="s">
         <v>23</v>
       </c>
-      <c r="AA24" t="s">
-        <v>1332</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="5:28">
+      <c r="W24" t="s">
+        <v>1318</v>
+      </c>
+      <c r="X24" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>1367</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="5:30">
       <c r="E25" t="s">
         <v>119</v>
       </c>
@@ -6048,14 +6301,20 @@
       <c r="V25" t="s">
         <v>23</v>
       </c>
-      <c r="AA25" t="s">
-        <v>1333</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="5:28">
+      <c r="W25" t="s">
+        <v>1319</v>
+      </c>
+      <c r="X25" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>1368</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="5:30">
       <c r="E26" t="s">
         <v>120</v>
       </c>
@@ -6092,14 +6351,20 @@
       <c r="V26" t="s">
         <v>23</v>
       </c>
-      <c r="AA26" t="s">
-        <v>1334</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="5:28">
+      <c r="W26" t="s">
+        <v>1320</v>
+      </c>
+      <c r="X26" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>1369</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="5:30">
       <c r="E27" t="s">
         <v>121</v>
       </c>
@@ -6136,14 +6401,20 @@
       <c r="V27" t="s">
         <v>23</v>
       </c>
-      <c r="AA27" t="s">
-        <v>1335</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="5:28">
+      <c r="W27" t="s">
+        <v>1321</v>
+      </c>
+      <c r="X27" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>1370</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="5:30">
       <c r="E28" t="s">
         <v>122</v>
       </c>
@@ -6180,14 +6451,14 @@
       <c r="V28" t="s">
         <v>23</v>
       </c>
-      <c r="AA28" t="s">
-        <v>1336</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="5:28">
+      <c r="AC28" t="s">
+        <v>1371</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="5:30">
       <c r="E29" t="s">
         <v>123</v>
       </c>
@@ -6224,14 +6495,14 @@
       <c r="V29" t="s">
         <v>23</v>
       </c>
-      <c r="AA29" t="s">
-        <v>1337</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="5:28">
+      <c r="AC29" t="s">
+        <v>1372</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="5:30">
       <c r="E30" t="s">
         <v>124</v>
       </c>
@@ -6268,14 +6539,14 @@
       <c r="V30" t="s">
         <v>23</v>
       </c>
-      <c r="AA30" t="s">
-        <v>1338</v>
-      </c>
-      <c r="AB30" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="5:28">
+      <c r="AC30" t="s">
+        <v>1373</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="5:30">
       <c r="E31" t="s">
         <v>125</v>
       </c>
@@ -6312,14 +6583,14 @@
       <c r="V31" t="s">
         <v>23</v>
       </c>
-      <c r="AA31" t="s">
-        <v>1339</v>
-      </c>
-      <c r="AB31" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="5:28">
+      <c r="AC31" t="s">
+        <v>1374</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="5:30">
       <c r="E32" t="s">
         <v>126</v>
       </c>
@@ -6356,14 +6627,14 @@
       <c r="V32" t="s">
         <v>23</v>
       </c>
-      <c r="AA32" t="s">
-        <v>1340</v>
-      </c>
-      <c r="AB32" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="5:28">
+      <c r="AC32" t="s">
+        <v>1375</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="5:30">
       <c r="E33" t="s">
         <v>127</v>
       </c>
@@ -6400,14 +6671,14 @@
       <c r="V33" t="s">
         <v>23</v>
       </c>
-      <c r="AA33" t="s">
-        <v>1341</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="5:28">
+      <c r="AC33" t="s">
+        <v>1376</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="5:30">
       <c r="E34" t="s">
         <v>128</v>
       </c>
@@ -6444,14 +6715,14 @@
       <c r="V34" t="s">
         <v>23</v>
       </c>
-      <c r="AA34" t="s">
-        <v>1342</v>
-      </c>
-      <c r="AB34" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="5:28">
+      <c r="AC34" t="s">
+        <v>1377</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="5:30">
       <c r="E35" t="s">
         <v>129</v>
       </c>
@@ -6488,14 +6759,14 @@
       <c r="V35" t="s">
         <v>23</v>
       </c>
-      <c r="AA35" t="s">
-        <v>1343</v>
-      </c>
-      <c r="AB35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="5:28">
+      <c r="AC35" t="s">
+        <v>1378</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="5:30">
       <c r="E36" t="s">
         <v>130</v>
       </c>
@@ -6532,14 +6803,14 @@
       <c r="V36" t="s">
         <v>23</v>
       </c>
-      <c r="AA36" t="s">
-        <v>1344</v>
-      </c>
-      <c r="AB36" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" spans="5:28">
+      <c r="AC36" t="s">
+        <v>1379</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="5:30">
       <c r="E37" t="s">
         <v>131</v>
       </c>
@@ -6576,14 +6847,14 @@
       <c r="V37" t="s">
         <v>23</v>
       </c>
-      <c r="AA37" t="s">
-        <v>1345</v>
-      </c>
-      <c r="AB37" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="5:28">
+      <c r="AC37" t="s">
+        <v>1380</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="5:30">
       <c r="E38" t="s">
         <v>132</v>
       </c>
@@ -6620,14 +6891,14 @@
       <c r="V38" t="s">
         <v>23</v>
       </c>
-      <c r="AA38" t="s">
-        <v>1346</v>
-      </c>
-      <c r="AB38" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" spans="5:28">
+      <c r="AC38" t="s">
+        <v>1381</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="5:30">
       <c r="E39" t="s">
         <v>133</v>
       </c>
@@ -6664,14 +6935,14 @@
       <c r="V39" t="s">
         <v>23</v>
       </c>
-      <c r="AA39" t="s">
-        <v>1347</v>
-      </c>
-      <c r="AB39" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" spans="5:28">
+      <c r="AC39" t="s">
+        <v>1382</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="5:30">
       <c r="E40" t="s">
         <v>134</v>
       </c>
@@ -6708,14 +6979,14 @@
       <c r="V40" t="s">
         <v>23</v>
       </c>
-      <c r="AA40" t="s">
-        <v>1348</v>
-      </c>
-      <c r="AB40" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="5:28">
+      <c r="AC40" t="s">
+        <v>1383</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="5:30">
       <c r="E41" t="s">
         <v>135</v>
       </c>
@@ -6752,14 +7023,14 @@
       <c r="V41" t="s">
         <v>23</v>
       </c>
-      <c r="AA41" t="s">
-        <v>1349</v>
-      </c>
-      <c r="AB41" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" spans="5:28">
+      <c r="AC41" t="s">
+        <v>1384</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="5:30">
       <c r="E42" t="s">
         <v>136</v>
       </c>
@@ -6796,14 +7067,14 @@
       <c r="V42" t="s">
         <v>23</v>
       </c>
-      <c r="AA42" t="s">
-        <v>1350</v>
-      </c>
-      <c r="AB42" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" spans="5:28">
+      <c r="AC42" t="s">
+        <v>1385</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="5:30">
       <c r="E43" t="s">
         <v>137</v>
       </c>
@@ -6840,14 +7111,14 @@
       <c r="V43" t="s">
         <v>23</v>
       </c>
-      <c r="AA43" t="s">
-        <v>1351</v>
-      </c>
-      <c r="AB43" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="44" spans="5:28">
+      <c r="AC43" t="s">
+        <v>1386</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="5:30">
       <c r="E44" t="s">
         <v>138</v>
       </c>
@@ -6884,14 +7155,14 @@
       <c r="V44" t="s">
         <v>23</v>
       </c>
-      <c r="AA44" t="s">
-        <v>1352</v>
-      </c>
-      <c r="AB44" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="45" spans="5:28">
+      <c r="AC44" t="s">
+        <v>1387</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="5:30">
       <c r="E45" t="s">
         <v>139</v>
       </c>
@@ -6928,14 +7199,14 @@
       <c r="V45" t="s">
         <v>23</v>
       </c>
-      <c r="AA45" t="s">
-        <v>1353</v>
-      </c>
-      <c r="AB45" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="46" spans="5:28">
+      <c r="AC45" t="s">
+        <v>1388</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="5:30">
       <c r="E46" t="s">
         <v>140</v>
       </c>
@@ -6972,14 +7243,14 @@
       <c r="V46" t="s">
         <v>23</v>
       </c>
-      <c r="AA46" t="s">
-        <v>1354</v>
-      </c>
-      <c r="AB46" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" spans="5:28">
+      <c r="AC46" t="s">
+        <v>1389</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="5:30">
       <c r="E47" t="s">
         <v>141</v>
       </c>
@@ -7016,14 +7287,14 @@
       <c r="V47" t="s">
         <v>23</v>
       </c>
-      <c r="AA47" t="s">
-        <v>1355</v>
-      </c>
-      <c r="AB47" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="48" spans="5:28">
+      <c r="AC47" t="s">
+        <v>1390</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="5:30">
       <c r="E48" t="s">
         <v>142</v>
       </c>
@@ -7060,14 +7331,14 @@
       <c r="V48" t="s">
         <v>23</v>
       </c>
-      <c r="AA48" t="s">
-        <v>1356</v>
-      </c>
-      <c r="AB48" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="49" spans="5:28">
+      <c r="AC48" t="s">
+        <v>1391</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="5:30">
       <c r="E49" t="s">
         <v>143</v>
       </c>
@@ -7104,14 +7375,14 @@
       <c r="V49" t="s">
         <v>23</v>
       </c>
-      <c r="AA49" t="s">
-        <v>1357</v>
-      </c>
-      <c r="AB49" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="50" spans="5:28">
+      <c r="AC49" t="s">
+        <v>1392</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="5:30">
       <c r="E50" t="s">
         <v>144</v>
       </c>
@@ -7148,14 +7419,14 @@
       <c r="V50" t="s">
         <v>23</v>
       </c>
-      <c r="AA50" t="s">
-        <v>1358</v>
-      </c>
-      <c r="AB50" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="51" spans="5:28">
+      <c r="AC50" t="s">
+        <v>1393</v>
+      </c>
+      <c r="AD50" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="5:30">
       <c r="E51" t="s">
         <v>145</v>
       </c>
@@ -7192,14 +7463,14 @@
       <c r="V51" t="s">
         <v>23</v>
       </c>
-      <c r="AA51" t="s">
-        <v>1359</v>
-      </c>
-      <c r="AB51" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="52" spans="5:28">
+      <c r="AC51" t="s">
+        <v>1394</v>
+      </c>
+      <c r="AD51" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="5:30">
       <c r="E52" t="s">
         <v>146</v>
       </c>
@@ -7236,14 +7507,14 @@
       <c r="V52" t="s">
         <v>23</v>
       </c>
-      <c r="AA52" t="s">
-        <v>1360</v>
-      </c>
-      <c r="AB52" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="53" spans="5:28">
+      <c r="AC52" t="s">
+        <v>1395</v>
+      </c>
+      <c r="AD52" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="5:30">
       <c r="E53" t="s">
         <v>147</v>
       </c>
@@ -7280,14 +7551,14 @@
       <c r="V53" t="s">
         <v>23</v>
       </c>
-      <c r="AA53" t="s">
-        <v>1361</v>
-      </c>
-      <c r="AB53" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="54" spans="5:28">
+      <c r="AC53" t="s">
+        <v>1396</v>
+      </c>
+      <c r="AD53" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="5:30">
       <c r="E54" t="s">
         <v>148</v>
       </c>
@@ -7324,14 +7595,14 @@
       <c r="V54" t="s">
         <v>23</v>
       </c>
-      <c r="AA54" t="s">
-        <v>1362</v>
-      </c>
-      <c r="AB54" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="55" spans="5:28">
+      <c r="AC54" t="s">
+        <v>1397</v>
+      </c>
+      <c r="AD54" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="5:30">
       <c r="E55" t="s">
         <v>149</v>
       </c>
@@ -7368,14 +7639,14 @@
       <c r="V55" t="s">
         <v>23</v>
       </c>
-      <c r="AA55" t="s">
-        <v>1363</v>
-      </c>
-      <c r="AB55" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="56" spans="5:28">
+      <c r="AC55" t="s">
+        <v>1398</v>
+      </c>
+      <c r="AD55" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="5:30">
       <c r="E56" t="s">
         <v>150</v>
       </c>
@@ -7412,14 +7683,14 @@
       <c r="V56" t="s">
         <v>23</v>
       </c>
-      <c r="AA56" t="s">
-        <v>1364</v>
-      </c>
-      <c r="AB56" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="57" spans="5:28">
+      <c r="AC56" t="s">
+        <v>1399</v>
+      </c>
+      <c r="AD56" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="5:30">
       <c r="E57" t="s">
         <v>151</v>
       </c>
@@ -7456,14 +7727,14 @@
       <c r="V57" t="s">
         <v>23</v>
       </c>
-      <c r="AA57" t="s">
-        <v>1365</v>
-      </c>
-      <c r="AB57" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="58" spans="5:28">
+      <c r="AC57" t="s">
+        <v>1400</v>
+      </c>
+      <c r="AD57" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="5:30">
       <c r="E58" t="s">
         <v>152</v>
       </c>
@@ -7500,14 +7771,14 @@
       <c r="V58" t="s">
         <v>23</v>
       </c>
-      <c r="AA58" t="s">
-        <v>1366</v>
-      </c>
-      <c r="AB58" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="59" spans="5:28">
+      <c r="AC58" t="s">
+        <v>1401</v>
+      </c>
+      <c r="AD58" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="5:30">
       <c r="E59" t="s">
         <v>153</v>
       </c>
@@ -7544,14 +7815,14 @@
       <c r="V59" t="s">
         <v>23</v>
       </c>
-      <c r="AA59" t="s">
-        <v>1367</v>
-      </c>
-      <c r="AB59" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="60" spans="5:28">
+      <c r="AC59" t="s">
+        <v>1402</v>
+      </c>
+      <c r="AD59" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="5:30">
       <c r="E60" t="s">
         <v>154</v>
       </c>
@@ -7588,14 +7859,14 @@
       <c r="V60" t="s">
         <v>23</v>
       </c>
-      <c r="AA60" t="s">
-        <v>1368</v>
-      </c>
-      <c r="AB60" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="61" spans="5:28">
+      <c r="AC60" t="s">
+        <v>1403</v>
+      </c>
+      <c r="AD60" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="5:30">
       <c r="E61" t="s">
         <v>155</v>
       </c>
@@ -7633,7 +7904,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="5:28">
+    <row r="62" spans="5:30">
       <c r="E62" t="s">
         <v>156</v>
       </c>
@@ -7671,7 +7942,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="5:28">
+    <row r="63" spans="5:30">
       <c r="E63" t="s">
         <v>157</v>
       </c>
@@ -7709,7 +7980,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="5:28">
+    <row r="64" spans="5:30">
       <c r="E64" t="s">
         <v>158</v>
       </c>
@@ -25914,7 +26185,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="18">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C2:D2"/>
@@ -25931,10 +26202,11 @@
     <mergeCell ref="W2:X2"/>
     <mergeCell ref="Y2:Z2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="W1:AB1"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="W1:AD1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="14">
+  <tableParts count="15">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
@@ -25949,6 +26221,7 @@
     <tablePart r:id="rId12"/>
     <tablePart r:id="rId13"/>
     <tablePart r:id="rId14"/>
+    <tablePart r:id="rId15"/>
   </tableParts>
 </worksheet>
 </file>
@@ -26670,7 +26943,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -26679,23 +26952,25 @@
     <col min="1" max="1" width="8.7109375" style="2" customWidth="1"/>
     <col min="2" max="3" width="26.7109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="30.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" style="6" customWidth="1"/>
-    <col min="7" max="7" width="52.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="22.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="2" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="34.7109375" style="2" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="26.7109375" style="2" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="44.7109375" style="6" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="42.7109375" style="7" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="48.7109375" style="2" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="40.7109375" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="40.7109375" style="2" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="44.7109375" style="2" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="36.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="24.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="56.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="26.7109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="26.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="26.7109375" style="6" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="24.7109375" style="7" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="30.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="22.7109375" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="24.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="44.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="36.7109375" style="2" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" hidden="1">
+    <row r="1" spans="1:20" hidden="1">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -26712,13 +26987,13 @@
         <v>1266</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1268</v>
+        <v>1271</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1270</v>
+        <v>1272</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>1273</v>
@@ -26727,7 +27002,7 @@
         <v>1274</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>1279</v>
@@ -26739,19 +27014,25 @@
         <v>1282</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>1287</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>1290</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>1292</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" hidden="1">
+      <c r="S1" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" hidden="1">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -26765,35 +27046,39 @@
         <v>1265</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>1266</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>1267</v>
-      </c>
+        <v>1270</v>
+      </c>
+      <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
+        <v>1271</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>1272</v>
       </c>
-      <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
         <v>1273</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>1276</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>1289</v>
-      </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
+        <v>1278</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>1292</v>
+      </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
-      <c r="Q2" s="1" t="s">
-        <v>1294</v>
-      </c>
+      <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
-    </row>
-    <row r="3" spans="1:18" hidden="1">
+      <c r="S2" s="1" t="s">
+        <v>1297</v>
+      </c>
+      <c r="T2" s="1"/>
+    </row>
+    <row r="3" spans="1:20" hidden="1">
       <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
@@ -26803,37 +27088,40 @@
       <c r="D3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="E3" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>1269</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>1271</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="5" t="s">
         <v>1275</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>1278</v>
-      </c>
-      <c r="L3" s="5" t="s">
+        <v>1277</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>1281</v>
+      </c>
+      <c r="N3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5" t="s">
-        <v>1286</v>
-      </c>
       <c r="O3" s="5"/>
-      <c r="P3" s="1" t="s">
-        <v>1288</v>
-      </c>
-      <c r="Q3" s="5" t="s">
+      <c r="P3" s="5" t="s">
+        <v>1289</v>
+      </c>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="1" t="s">
         <v>1291</v>
       </c>
-      <c r="R3" s="1" t="s">
-        <v>1293</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" hidden="1">
+      <c r="S3" s="5" t="s">
+        <v>1294</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" hidden="1">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
@@ -26843,20 +27131,20 @@
       <c r="D4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>1281</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>1283</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>1285</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="O4" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>1286</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -26870,80 +27158,91 @@
         <v>1265</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>1267</v>
+        <v>1269</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>1268</v>
+        <v>1271</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>1270</v>
+        <v>1272</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>1273</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>1274</v>
+        <v>1336</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>1277</v>
+        <v>1337</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>1279</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>1280</v>
+        <v>1343</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>1282</v>
+        <v>1344</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>1284</v>
+        <v>1345</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>1287</v>
+        <v>1346</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>1290</v>
+        <v>1347</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>1292</v>
+        <v>1348</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>1295</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="L3:M3"/>
+  <mergeCells count="6">
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="J2:K2"/>
     <mergeCell ref="N3:O3"/>
-    <mergeCell ref="K2:P2"/>
-    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="S2:T2"/>
   </mergeCells>
-  <dataValidations count="6">
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E1000001">
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E1000001">
+      <formula1>'Codelijsten'!$W$4:$W$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F1000001">
+      <formula1>'Codelijsten'!$Y$4:$Y$17</formula1>
+    </dataValidation>
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G1000001">
       <formula1>-146096</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F1000001">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:H1000001">
       <formula1>-146096</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I1000001">
-      <formula1>'Codelijsten'!$W$4:$W$8</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6:L1000001">
+      <formula1>'Codelijsten'!$AA$4:$AA$8</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J6:J1000001">
-      <formula1>'Codelijsten'!$Y$4:$Y$17</formula1>
-    </dataValidation>
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6:L1000001">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N6:N1000001">
       <formula1>-146096</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P6:P1000001">
-      <formula1>'Codelijsten'!$AA$4:$AA$60</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R6:R1000001">
+      <formula1>'Codelijsten'!$AC$4:$AC$60</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="I5" location="'Codelijsten'!$W$2" display="status"/>
-    <hyperlink ref="J5" location="'Codelijsten'!$Y$2" display="kwaliteit-origine"/>
-    <hyperlink ref="P5" location="'Codelijsten'!$AA$2" display="bijlage-bijlage_type"/>
+    <hyperlink ref="E5" location="'Codelijsten'!$W$2" display="aard"/>
+    <hyperlink ref="F5" location="'Codelijsten'!$Y$2" display="origine"/>
+    <hyperlink ref="L5" location="'Codelijsten'!$AA$2" display="status"/>
+    <hyperlink ref="R5" location="'Codelijsten'!$AC$2" display="type bijlage"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -26959,26 +27258,26 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>1370</v>
+        <v>1405</v>
       </c>
       <c r="B1" t="s">
-        <v>1371</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1372</v>
+        <v>1407</v>
       </c>
       <c r="B2" t="s">
-        <v>1373</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>1374</v>
+        <v>1409</v>
       </c>
       <c r="B3" t="s">
-        <v>1375</v>
+        <v>1410</v>
       </c>
     </row>
   </sheetData>

--- a/data/geologie_template.xlsx
+++ b/data/geologie_template.xlsx
@@ -4239,7 +4239,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-07-24 13:26:30.886745</t>
+    <t>2024-08-01 09:38:06.269504</t>
   </si>
   <si>
     <t>version</t>
@@ -26228,7 +26228,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -26291,20 +26291,22 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:5" hidden="1"/>
+    <row r="7" spans="1:5" hidden="1"/>
+    <row r="8" spans="1:5">
+      <c r="A8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -26319,7 +26321,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -26398,20 +26400,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:5" hidden="1"/>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -26422,12 +26425,12 @@
     <mergeCell ref="A2:E2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8:E1000001">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:E1000001">
       <formula1>'Codelijsten'!$A$4:$A$6</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E7" location="'Codelijsten'!$A$2" display="informelestratigrafie-betrouwbaarheid"/>
+    <hyperlink ref="E8" location="'Codelijsten'!$A$2" display="informelestratigrafie-betrouwbaarheid"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -26435,7 +26438,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG7"/>
+  <dimension ref="A1:AG8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -26773,104 +26776,105 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:33" hidden="1"/>
+    <row r="8" spans="1:33">
+      <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="O8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="P8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="R8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="S8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="T8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="U7" s="1" t="s">
+      <c r="U8" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="V7" s="1" t="s">
+      <c r="V8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="W7" s="1" t="s">
+      <c r="W8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="X7" s="1" t="s">
+      <c r="X8" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="Y7" s="1" t="s">
+      <c r="Y8" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="Z7" s="1" t="s">
+      <c r="Z8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AA7" s="1" t="s">
+      <c r="AA8" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AB7" s="1" t="s">
+      <c r="AB8" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AC7" s="1" t="s">
+      <c r="AC8" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AD7" s="1" t="s">
+      <c r="AD8" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AE7" s="1" t="s">
+      <c r="AE8" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="AF7" s="1" t="s">
+      <c r="AF8" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AG7" s="1" t="s">
+      <c r="AG8" s="1" t="s">
         <v>87</v>
       </c>
     </row>
@@ -26888,54 +26892,54 @@
     <mergeCell ref="AB2:AG2"/>
   </mergeCells>
   <dataValidations count="12">
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:C1000001">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9:C1000001">
       <formula1>-146096</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:D1000001">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:D1000001">
       <formula1>'Codelijsten'!$C$4:$C$11</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8:G1000001">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G1000001">
       <formula1>'Codelijsten'!$E$4:$E$954</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J8:J1000001">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J9:J1000001">
       <formula1>'Codelijsten'!$G$4:$G$67</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K8:K1000001">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K9:K1000001">
       <formula1>-146096</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O8:O1000001">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O9:O1000001">
       <formula1>'Codelijsten'!$I$4:$I$152</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q8:Q1000001">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q9:Q1000001">
       <formula1>'Codelijsten'!$K$4:$K$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R8:R1000001">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R9:R1000001">
       <formula1>'Codelijsten'!$M$4:$M$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W8:W1000001">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W9:W1000001">
       <formula1>'Codelijsten'!$O$4:$O$921</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z8:Z1000001">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z9:Z1000001">
       <formula1>'Codelijsten'!$Q$4:$Q$67</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD8:AD1000001">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD9:AD1000001">
       <formula1>'Codelijsten'!$S$4:$S$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG8:AG1000001">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG9:AG1000001">
       <formula1>'Codelijsten'!$U$4:$U$954</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D7" location="'Codelijsten'!$C$2" display="monstertype"/>
-    <hyperlink ref="G7" location="'Codelijsten'!$E$2" display="observatieData-observatie-parameter"/>
-    <hyperlink ref="J7" location="'Codelijsten'!$G$2" display="observatieData-observatie-eenheid"/>
-    <hyperlink ref="O7" location="'Codelijsten'!$I$2" display="observatieData-observatie-methode"/>
-    <hyperlink ref="Q7" location="'Codelijsten'!$K$2" display="observatieData-observatie-betrouwbaarheid"/>
-    <hyperlink ref="R7" location="'Codelijsten'!$M$2" display="observatieData-observatie-veld_labo"/>
-    <hyperlink ref="W7" location="'Codelijsten'!$O$2" display="observatieData-observatie-secundaireparameter-parameter"/>
-    <hyperlink ref="Z7" location="'Codelijsten'!$Q$2" display="observatieData-observatie-secundaireparameter-eenheid"/>
-    <hyperlink ref="AD7" location="'Codelijsten'!$S$2" display="observatieReeksData-korrelverdeling_reeks-humus_kalk_verwijderd"/>
-    <hyperlink ref="AG7" location="'Codelijsten'!$U$2" display="observatieReeksData-korrelverdeling_reeks-korrelverdeling-methode"/>
+    <hyperlink ref="D8" location="'Codelijsten'!$C$2" display="monstertype"/>
+    <hyperlink ref="G8" location="'Codelijsten'!$E$2" display="observatieData-observatie-parameter"/>
+    <hyperlink ref="J8" location="'Codelijsten'!$G$2" display="observatieData-observatie-eenheid"/>
+    <hyperlink ref="O8" location="'Codelijsten'!$I$2" display="observatieData-observatie-methode"/>
+    <hyperlink ref="Q8" location="'Codelijsten'!$K$2" display="observatieData-observatie-betrouwbaarheid"/>
+    <hyperlink ref="R8" location="'Codelijsten'!$M$2" display="observatieData-observatie-veld_labo"/>
+    <hyperlink ref="W8" location="'Codelijsten'!$O$2" display="observatieData-observatie-secundaireparameter-parameter"/>
+    <hyperlink ref="Z8" location="'Codelijsten'!$Q$2" display="observatieData-observatie-secundaireparameter-eenheid"/>
+    <hyperlink ref="AD8" location="'Codelijsten'!$S$2" display="observatieReeksData-korrelverdeling_reeks-humus_kalk_verwijderd"/>
+    <hyperlink ref="AG8" location="'Codelijsten'!$U$2" display="observatieReeksData-korrelverdeling_reeks-korrelverdeling-methode"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -26943,7 +26947,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -27144,65 +27148,66 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:20" hidden="1"/>
+    <row r="6" spans="1:20">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>1263</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>1265</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>1267</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>1269</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>1271</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>1272</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>1273</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>1336</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>1337</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>1279</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>1343</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>1344</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>1345</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>1346</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>1347</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>1348</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="S6" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="T6" s="1" t="s">
         <v>1295</v>
       </c>
     </row>
@@ -27216,33 +27221,33 @@
     <mergeCell ref="S2:T2"/>
   </mergeCells>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E1000001">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E1000001">
       <formula1>'Codelijsten'!$W$4:$W$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F1000001">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F1000001">
       <formula1>'Codelijsten'!$Y$4:$Y$17</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G1000001">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:G1000001">
       <formula1>-146096</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:H1000001">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H1000001">
       <formula1>-146096</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6:L1000001">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L7:L1000001">
       <formula1>'Codelijsten'!$AA$4:$AA$8</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N6:N1000001">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N7:N1000001">
       <formula1>-146096</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R6:R1000001">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R7:R1000001">
       <formula1>'Codelijsten'!$AC$4:$AC$60</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E5" location="'Codelijsten'!$W$2" display="aard"/>
-    <hyperlink ref="F5" location="'Codelijsten'!$Y$2" display="origine"/>
-    <hyperlink ref="L5" location="'Codelijsten'!$AA$2" display="status"/>
-    <hyperlink ref="R5" location="'Codelijsten'!$AC$2" display="type bijlage"/>
+    <hyperlink ref="E6" location="'Codelijsten'!$W$2" display="aard"/>
+    <hyperlink ref="F6" location="'Codelijsten'!$Y$2" display="origine"/>
+    <hyperlink ref="L6" location="'Codelijsten'!$AA$2" display="status"/>
+    <hyperlink ref="R6" location="'Codelijsten'!$AC$2" display="type bijlage"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/geologie_template.xlsx
+++ b/data/geologie_template.xlsx
@@ -4239,7 +4239,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-08-01 09:38:06.269504</t>
+    <t>2024-08-02 15:51:36.078307</t>
   </si>
   <si>
     <t>version</t>

--- a/data/geologie_template.xlsx
+++ b/data/geologie_template.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6721" uniqueCount="1411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6719" uniqueCount="1409">
   <si>
     <t>identificatie</t>
   </si>
@@ -4239,19 +4239,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-08-02 15:51:36.078307</t>
+    <t>2024-08-02 16:50:21.587695</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>1.0.0</t>
-  </si>
-  <si>
-    <t>generated_by</t>
-  </si>
-  <si>
-    <t>Ruben Vijverman</t>
+    <t>2.0.0</t>
   </si>
 </sst>
 </file>
@@ -27255,7 +27249,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -27277,14 +27271,6 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>1409</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1410</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/geologie_template.xlsx
+++ b/data/geologie_template.xlsx
@@ -4239,7 +4239,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-08-02 16:50:21.587695</t>
+    <t>2024-08-05 10:13:26.292443</t>
   </si>
   <si>
     <t>version</t>

--- a/data/geologie_template.xlsx
+++ b/data/geologie_template.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6719" uniqueCount="1409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6723" uniqueCount="1413">
   <si>
     <t>identificatie</t>
   </si>
@@ -4239,13 +4239,25 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-08-05 10:13:26.292443</t>
+    <t>2024-08-07 13:31:40.143165</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
     <t>2.0.0</t>
+  </si>
+  <si>
+    <t>mode</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>xsd_schema.json</t>
   </si>
 </sst>
 </file>
@@ -27249,7 +27261,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -27271,6 +27283,22 @@
         <v>1408</v>
       </c>
     </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1412</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/geologie_template.xlsx
+++ b/data/geologie_template.xlsx
@@ -4239,7 +4239,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-08-07 13:31:40.143165</t>
+    <t>2024-08-08 11:46:48.557269</t>
   </si>
   <si>
     <t>version</t>

--- a/data/geologie_template.xlsx
+++ b/data/geologie_template.xlsx
@@ -4239,13 +4239,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-08-08 11:46:48.557269</t>
+    <t>2024-08-12 14:45:31.994211</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.0.1</t>
   </si>
   <si>
     <t>mode</t>
@@ -4257,7 +4257,7 @@
     <t>source</t>
   </si>
   <si>
-    <t>xsd_schema.json</t>
+    <t>productie</t>
   </si>
 </sst>
 </file>

--- a/data/geologie_template.xlsx
+++ b/data/geologie_template.xlsx
@@ -4239,7 +4239,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-08-12 14:45:31.994211</t>
+    <t>2024-09-10 13:00:48.964344</t>
   </si>
   <si>
     <t>version</t>

--- a/data/geologie_template.xlsx
+++ b/data/geologie_template.xlsx
@@ -4239,13 +4239,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-09-10 13:00:48.964344</t>
+    <t>2024-09-10 13:37:34.440845</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.0.1</t>
+    <t>2.0.2</t>
   </si>
   <si>
     <t>mode</t>

--- a/data/geologie_template.xlsx
+++ b/data/geologie_template.xlsx
@@ -4239,7 +4239,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-09-10 13:37:34.440845</t>
+    <t>2024-11-07 19:29:08.406454</t>
   </si>
   <si>
     <t>version</t>

--- a/data/geologie_template.xlsx
+++ b/data/geologie_template.xlsx
@@ -5076,7 +5076,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-11-08 01:22:18.625551</t>
+    <t>2024-11-08 02:13:55.339353</t>
   </si>
   <si>
     <t>version</t>

--- a/data/geologie_template.xlsx
+++ b/data/geologie_template.xlsx
@@ -5076,13 +5076,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-11-12 08:42:20.237195</t>
+    <t>2024-12-02 16:44:13.245356</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.0.4</t>
+    <t>2.0.5</t>
   </si>
   <si>
     <t>mode</t>

--- a/data/geologie_template.xlsx
+++ b/data/geologie_template.xlsx
@@ -5076,13 +5076,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-12-02 16:44:13.245356</t>
+    <t>2024-12-10 17:55:19.771764</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.0.5</t>
+    <t>2.0.6</t>
   </si>
   <si>
     <t>mode</t>

--- a/data/geologie_template.xlsx
+++ b/data/geologie_template.xlsx
@@ -5076,13 +5076,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-12-10 17:55:19.771764</t>
+    <t>2024-12-20 12:16:42.028848</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.0.6</t>
+    <t>2.0.7</t>
   </si>
   <si>
     <t>mode</t>

--- a/data/geologie_template.xlsx
+++ b/data/geologie_template.xlsx
@@ -5076,7 +5076,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-12-20 12:16:42.028848</t>
+    <t>2024-12-20 14:58:11.955968</t>
   </si>
   <si>
     <t>version</t>

--- a/data/geologie_template.xlsx
+++ b/data/geologie_template.xlsx
@@ -5076,13 +5076,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-12-20 14:58:11.955968</t>
+    <t>2024-12-23 11:42:05.190246</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.0.7</t>
+    <t>2.0.8</t>
   </si>
   <si>
     <t>mode</t>

--- a/data/geologie_template.xlsx
+++ b/data/geologie_template.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7700" uniqueCount="1699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7702" uniqueCount="1701">
   <si>
     <t>identificatie</t>
   </si>
@@ -5091,7 +5091,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-02-14 13:20:03.309860</t>
+    <t>2025-02-14 14:05:33.432018</t>
   </si>
   <si>
     <t>version</t>
@@ -5100,10 +5100,16 @@
     <t>2.0.9</t>
   </si>
   <si>
-    <t>xsd-version</t>
+    <t>xdov-version</t>
   </si>
   <si>
     <t>9.1.0</t>
+  </si>
+  <si>
+    <t>schema-version</t>
+  </si>
+  <si>
+    <t>5.4.0</t>
   </si>
   <si>
     <t>mode</t>
@@ -31393,7 +31399,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -31439,6 +31445,14 @@
         <v>1698</v>
       </c>
     </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>1699</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/geologie_template.xlsx
+++ b/data/geologie_template.xlsx
@@ -5091,13 +5091,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-02-14 14:05:33.432018</t>
+    <t>2025-02-24 16:59:55.215041</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.0.9</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>xdov-version</t>

--- a/data/geologie_template.xlsx
+++ b/data/geologie_template.xlsx
@@ -5091,13 +5091,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-02-24 16:59:55.215041</t>
+    <t>2025-02-28 11:24:49.059933</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.1.1</t>
   </si>
   <si>
     <t>xdov-version</t>
